--- a/data/pca/factorExposure/factorExposure_2011-09-22.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-09-22.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,24 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +729,63 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>0.02229178437247476</v>
+        <v>0.01782341774072848</v>
       </c>
       <c r="C2">
-        <v>-0.005344734715396945</v>
+        <v>0.00685824485293747</v>
       </c>
       <c r="D2">
-        <v>0.05132748794523762</v>
+        <v>-0.04054570382577364</v>
       </c>
       <c r="E2">
-        <v>0.06285558457729346</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02270436906525657</v>
+      </c>
+      <c r="F2">
+        <v>0.0347530327911449</v>
+      </c>
+      <c r="G2">
+        <v>-0.01447891871659812</v>
+      </c>
+      <c r="H2">
+        <v>-0.006782742973595227</v>
+      </c>
+      <c r="I2">
+        <v>0.003922935969251136</v>
+      </c>
+      <c r="J2">
+        <v>0.05649919564387817</v>
+      </c>
+      <c r="K2">
+        <v>-0.07112353820858547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +799,63 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>0.08922783621879549</v>
+        <v>0.09988084314488246</v>
       </c>
       <c r="C4">
-        <v>-0.04152885874557028</v>
+        <v>0.04871853878191741</v>
       </c>
       <c r="D4">
-        <v>0.06093142514151167</v>
+        <v>-0.04230225529374636</v>
       </c>
       <c r="E4">
-        <v>0.02343708393282981</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.001955556684596539</v>
+      </c>
+      <c r="F4">
+        <v>0.07372641722341848</v>
+      </c>
+      <c r="G4">
+        <v>0.0258988339479736</v>
+      </c>
+      <c r="H4">
+        <v>0.009250333417330312</v>
+      </c>
+      <c r="I4">
+        <v>0.06298397779692229</v>
+      </c>
+      <c r="J4">
+        <v>-0.04462773249887923</v>
+      </c>
+      <c r="K4">
+        <v>0.03862423935756081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +869,413 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>0.1222051966548275</v>
+        <v>0.1318273464194639</v>
       </c>
       <c r="C6">
-        <v>0.005711385154847507</v>
+        <v>0.004898262227071893</v>
       </c>
       <c r="D6">
-        <v>0.03865815426930672</v>
+        <v>-0.05554252684284389</v>
       </c>
       <c r="E6">
-        <v>0.06423717918259153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.02205988679795358</v>
+      </c>
+      <c r="F6">
+        <v>0.02282424949390427</v>
+      </c>
+      <c r="G6">
+        <v>0.04840321641035795</v>
+      </c>
+      <c r="H6">
+        <v>0.200691599518224</v>
+      </c>
+      <c r="I6">
+        <v>-0.126715803583428</v>
+      </c>
+      <c r="J6">
+        <v>-0.4222888950400567</v>
+      </c>
+      <c r="K6">
+        <v>0.06413584185659713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>0.07100127603305699</v>
+        <v>0.07078453861599521</v>
       </c>
       <c r="C7">
-        <v>-0.01787064526467133</v>
+        <v>0.04856254082481446</v>
       </c>
       <c r="D7">
-        <v>0.07110489891928111</v>
+        <v>-0.05912328675846523</v>
       </c>
       <c r="E7">
-        <v>0.06010044457516526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01959590065982733</v>
+      </c>
+      <c r="F7">
+        <v>0.05363339760314281</v>
+      </c>
+      <c r="G7">
+        <v>-0.009203078104883258</v>
+      </c>
+      <c r="H7">
+        <v>-0.01162257612090971</v>
+      </c>
+      <c r="I7">
+        <v>0.05476768084029096</v>
+      </c>
+      <c r="J7">
+        <v>0.05818681449429255</v>
+      </c>
+      <c r="K7">
+        <v>0.06099847358711204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.04256313192262639</v>
+        <v>0.04377465206605211</v>
       </c>
       <c r="C8">
-        <v>-0.05589971278944746</v>
+        <v>0.02598939357462894</v>
       </c>
       <c r="D8">
-        <v>0.001897917437462415</v>
+        <v>0.006769651305037879</v>
       </c>
       <c r="E8">
-        <v>0.05803723382636392</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.03942577907216119</v>
+      </c>
+      <c r="F8">
+        <v>0.06480058595616942</v>
+      </c>
+      <c r="G8">
+        <v>0.05107651334425631</v>
+      </c>
+      <c r="H8">
+        <v>0.03893078160953419</v>
+      </c>
+      <c r="I8">
+        <v>0.09443501553596109</v>
+      </c>
+      <c r="J8">
+        <v>-0.0356994297955252</v>
+      </c>
+      <c r="K8">
+        <v>0.0255366671426226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>0.07896380213681814</v>
+        <v>0.08676594024942383</v>
       </c>
       <c r="C9">
-        <v>-0.05587358906929971</v>
+        <v>0.0517205182930096</v>
       </c>
       <c r="D9">
-        <v>0.05340803951944911</v>
+        <v>-0.03743191769204355</v>
       </c>
       <c r="E9">
-        <v>0.02327995801705396</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.00315797926319194</v>
+      </c>
+      <c r="F9">
+        <v>0.06290735789681519</v>
+      </c>
+      <c r="G9">
+        <v>0.04562137091953245</v>
+      </c>
+      <c r="H9">
+        <v>0.004339077084136753</v>
+      </c>
+      <c r="I9">
+        <v>0.07387893594222625</v>
+      </c>
+      <c r="J9">
+        <v>-0.04946719821700538</v>
+      </c>
+      <c r="K9">
+        <v>0.0288178605842721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>0.02324759602670927</v>
+        <v>0.06257830091168085</v>
       </c>
       <c r="C10">
-        <v>0.1567657120109893</v>
+        <v>-0.1938590549622193</v>
       </c>
       <c r="D10">
-        <v>-0.02943270424560139</v>
+        <v>-0.007447267619257454</v>
       </c>
       <c r="E10">
-        <v>0.08259759028844139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.04055030306532471</v>
+      </c>
+      <c r="F10">
+        <v>0.04598722994431233</v>
+      </c>
+      <c r="G10">
+        <v>-0.02839410434889665</v>
+      </c>
+      <c r="H10">
+        <v>0.01293965677159191</v>
+      </c>
+      <c r="I10">
+        <v>-0.04239432377915769</v>
+      </c>
+      <c r="J10">
+        <v>0.02445569194971281</v>
+      </c>
+      <c r="K10">
+        <v>-0.0247816113021779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>0.07485146131447738</v>
+        <v>0.07615123634622774</v>
       </c>
       <c r="C11">
-        <v>-0.0491483110209882</v>
+        <v>0.05408408811888172</v>
       </c>
       <c r="D11">
-        <v>0.04275762735781767</v>
+        <v>-0.03316943037896133</v>
       </c>
       <c r="E11">
-        <v>0.03055302876208937</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.0114808473447632</v>
+      </c>
+      <c r="F11">
+        <v>0.02531543739214655</v>
+      </c>
+      <c r="G11">
+        <v>0.06523756421904402</v>
+      </c>
+      <c r="H11">
+        <v>-0.01567104713766321</v>
+      </c>
+      <c r="I11">
+        <v>0.08216015188091327</v>
+      </c>
+      <c r="J11">
+        <v>0.01950358894042893</v>
+      </c>
+      <c r="K11">
+        <v>-0.04381648918927598</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>0.07606105971169626</v>
+        <v>0.07552889756616214</v>
       </c>
       <c r="C12">
-        <v>-0.03148929345989686</v>
+        <v>0.04258736838499673</v>
       </c>
       <c r="D12">
-        <v>0.05285863446133642</v>
+        <v>-0.03410187597829641</v>
       </c>
       <c r="E12">
-        <v>0.02597760574430417</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.002434107435452368</v>
+      </c>
+      <c r="F12">
+        <v>0.03256948756001109</v>
+      </c>
+      <c r="G12">
+        <v>0.03937659829996284</v>
+      </c>
+      <c r="H12">
+        <v>0.01405485213889098</v>
+      </c>
+      <c r="I12">
+        <v>0.09962206164217237</v>
+      </c>
+      <c r="J12">
+        <v>0.01911382358106115</v>
+      </c>
+      <c r="K12">
+        <v>-0.021985277211617</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>0.07727546090660208</v>
+        <v>0.06959185154509737</v>
       </c>
       <c r="C13">
-        <v>-0.0383601160909826</v>
+        <v>0.03465438755778712</v>
       </c>
       <c r="D13">
-        <v>0.03343457194504768</v>
+        <v>0.001044182093814366</v>
       </c>
       <c r="E13">
-        <v>0.02425598752969207</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.009547683805946769</v>
+      </c>
+      <c r="F13">
+        <v>0.04881079703417066</v>
+      </c>
+      <c r="G13">
+        <v>0.02162168540936616</v>
+      </c>
+      <c r="H13">
+        <v>-0.004691407423632821</v>
+      </c>
+      <c r="I13">
+        <v>0.1085788683193533</v>
+      </c>
+      <c r="J13">
+        <v>0.0139411749847014</v>
+      </c>
+      <c r="K13">
+        <v>0.07525021616431668</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>0.03391426401042382</v>
+        <v>0.0437609841082674</v>
       </c>
       <c r="C14">
-        <v>0.006924606941034308</v>
+        <v>0.005795326216198809</v>
       </c>
       <c r="D14">
-        <v>0.02853544778963271</v>
+        <v>-0.03604859940836452</v>
       </c>
       <c r="E14">
-        <v>0.01251213020569421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.006699019634562269</v>
+      </c>
+      <c r="F14">
+        <v>0.03096641226899512</v>
+      </c>
+      <c r="G14">
+        <v>0.03927031704626629</v>
+      </c>
+      <c r="H14">
+        <v>-0.0457767499156613</v>
+      </c>
+      <c r="I14">
+        <v>0.05649482162259569</v>
+      </c>
+      <c r="J14">
+        <v>-0.050874208280308</v>
+      </c>
+      <c r="K14">
+        <v>0.04598895609496451</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>0.05198514710289161</v>
+        <v>0.04344233325698417</v>
       </c>
       <c r="C15">
-        <v>-0.0154157945626308</v>
+        <v>0.0148334537294277</v>
       </c>
       <c r="D15">
-        <v>0.01328471291488205</v>
+        <v>0.007449261564133202</v>
       </c>
       <c r="E15">
-        <v>0.001914159685579382</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01974496367131624</v>
+      </c>
+      <c r="F15">
+        <v>0.03927282123990272</v>
+      </c>
+      <c r="G15">
+        <v>0.0254612392212529</v>
+      </c>
+      <c r="H15">
+        <v>-0.01039017913993156</v>
+      </c>
+      <c r="I15">
+        <v>0.01863742737630642</v>
+      </c>
+      <c r="J15">
+        <v>-0.02975941010307129</v>
+      </c>
+      <c r="K15">
+        <v>0.08043056127943049</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>0.06462063661789133</v>
+        <v>0.07470532119064083</v>
       </c>
       <c r="C16">
-        <v>-0.05231656633858368</v>
+        <v>0.05581528095727518</v>
       </c>
       <c r="D16">
-        <v>0.04699858600586635</v>
+        <v>-0.03525911194378786</v>
       </c>
       <c r="E16">
-        <v>0.02113001173714593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0004983048162616064</v>
+      </c>
+      <c r="F16">
+        <v>0.03826280935775589</v>
+      </c>
+      <c r="G16">
+        <v>0.03869879366804808</v>
+      </c>
+      <c r="H16">
+        <v>-0.009834362906587105</v>
+      </c>
+      <c r="I16">
+        <v>0.05895128265677427</v>
+      </c>
+      <c r="J16">
+        <v>0.01298589516710856</v>
+      </c>
+      <c r="K16">
+        <v>-0.01666641701580353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1289,28 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,10 +1324,28 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1359,273 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>0.06987409898943614</v>
+        <v>0.06392776589561144</v>
       </c>
       <c r="C20">
-        <v>-0.04388104163564147</v>
+        <v>0.0366388453555402</v>
       </c>
       <c r="D20">
-        <v>0.03144321294962001</v>
+        <v>-0.0158933836013974</v>
       </c>
       <c r="E20">
-        <v>0.020835556972051</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.006307050371916958</v>
+      </c>
+      <c r="F20">
+        <v>0.02193602211831234</v>
+      </c>
+      <c r="G20">
+        <v>0.03088447698855356</v>
+      </c>
+      <c r="H20">
+        <v>-0.01754855956630608</v>
+      </c>
+      <c r="I20">
+        <v>0.1245918264173655</v>
+      </c>
+      <c r="J20">
+        <v>-0.01136934694830527</v>
+      </c>
+      <c r="K20">
+        <v>0.02136180505309522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>0.03933203831566676</v>
+        <v>0.03201138920862412</v>
       </c>
       <c r="C21">
-        <v>-0.01747807070209839</v>
+        <v>0.02172391013790138</v>
       </c>
       <c r="D21">
-        <v>-0.01164307584604057</v>
+        <v>0.02138773446443612</v>
       </c>
       <c r="E21">
-        <v>0.01336352162493206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.01222082529355827</v>
+      </c>
+      <c r="F21">
+        <v>0.02387744141758793</v>
+      </c>
+      <c r="G21">
+        <v>0.006693756837032805</v>
+      </c>
+      <c r="H21">
+        <v>0.06973122680498402</v>
+      </c>
+      <c r="I21">
+        <v>0.02404619063420461</v>
+      </c>
+      <c r="J21">
+        <v>-0.03043717049363954</v>
+      </c>
+      <c r="K21">
+        <v>0.03852697395325954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.1101074828133332</v>
+        <v>0.09097705891992477</v>
       </c>
       <c r="C22">
-        <v>-0.1062600658695947</v>
+        <v>0.06488841755122927</v>
       </c>
       <c r="D22">
-        <v>0.006072744180965009</v>
+        <v>0.2139820885501072</v>
       </c>
       <c r="E22">
-        <v>0.00623681959519776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.1784988206167968</v>
+      </c>
+      <c r="F22">
+        <v>0.4713154039421258</v>
+      </c>
+      <c r="G22">
+        <v>-0.3065067546646423</v>
+      </c>
+      <c r="H22">
+        <v>0.02959371291109711</v>
+      </c>
+      <c r="I22">
+        <v>-0.2187126342659548</v>
+      </c>
+      <c r="J22">
+        <v>0.08174579451594487</v>
+      </c>
+      <c r="K22">
+        <v>-0.04343960271943849</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.1110478226716526</v>
+        <v>0.09191317044840863</v>
       </c>
       <c r="C23">
-        <v>-0.1060267292180657</v>
+        <v>0.06534151711277365</v>
       </c>
       <c r="D23">
-        <v>0.007375689043603079</v>
+        <v>0.2135160746469872</v>
       </c>
       <c r="E23">
-        <v>0.007609912498538582</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.1792365124636511</v>
+      </c>
+      <c r="F23">
+        <v>0.475774673935672</v>
+      </c>
+      <c r="G23">
+        <v>-0.3010974257393048</v>
+      </c>
+      <c r="H23">
+        <v>0.0284990644539083</v>
+      </c>
+      <c r="I23">
+        <v>-0.2218994312351172</v>
+      </c>
+      <c r="J23">
+        <v>0.07662419563859135</v>
+      </c>
+      <c r="K23">
+        <v>-0.04311009112840264</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>0.08601110474951532</v>
+        <v>0.08496029733516998</v>
       </c>
       <c r="C24">
-        <v>-0.05001756516820742</v>
+        <v>0.05343258484730978</v>
       </c>
       <c r="D24">
-        <v>0.04221186892274127</v>
+        <v>-0.02571423417874933</v>
       </c>
       <c r="E24">
-        <v>0.03439491926750075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.006023891073821621</v>
+      </c>
+      <c r="F24">
+        <v>0.04182618755057278</v>
+      </c>
+      <c r="G24">
+        <v>0.05719693273944858</v>
+      </c>
+      <c r="H24">
+        <v>0.009016835673424125</v>
+      </c>
+      <c r="I24">
+        <v>0.06962743558367908</v>
+      </c>
+      <c r="J24">
+        <v>0.002796338157422346</v>
+      </c>
+      <c r="K24">
+        <v>-0.02907652247699147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>0.08114083701141929</v>
+        <v>0.07831194311591966</v>
       </c>
       <c r="C25">
-        <v>-0.04392102978144004</v>
+        <v>0.0443927374777032</v>
       </c>
       <c r="D25">
-        <v>0.05616775202797955</v>
+        <v>-0.03614254631339466</v>
       </c>
       <c r="E25">
-        <v>0.04313498559726509</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>3.680894590842777e-05</v>
+      </c>
+      <c r="F25">
+        <v>0.04797062480354364</v>
+      </c>
+      <c r="G25">
+        <v>0.05382250861592865</v>
+      </c>
+      <c r="H25">
+        <v>0.0001647727740526052</v>
+      </c>
+      <c r="I25">
+        <v>0.08478961386589244</v>
+      </c>
+      <c r="J25">
+        <v>0.0007545347968086901</v>
+      </c>
+      <c r="K25">
+        <v>-0.03711806428705953</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>0.05156373377778036</v>
+        <v>0.04674111233993413</v>
       </c>
       <c r="C26">
-        <v>-0.0248356614689304</v>
+        <v>0.02416658052759186</v>
       </c>
       <c r="D26">
-        <v>-0.00278215176348416</v>
+        <v>0.02300524994922715</v>
       </c>
       <c r="E26">
-        <v>0.03810312865495558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.006748224993744569</v>
+      </c>
+      <c r="F26">
+        <v>0.03386609575032566</v>
+      </c>
+      <c r="G26">
+        <v>0.02776376565290312</v>
+      </c>
+      <c r="H26">
+        <v>-0.02745059307217589</v>
+      </c>
+      <c r="I26">
+        <v>0.02198148152559101</v>
+      </c>
+      <c r="J26">
+        <v>-0.01644193526535923</v>
+      </c>
+      <c r="K26">
+        <v>0.1176840120428701</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1639,343 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>0.0461388295340513</v>
+        <v>0.07611549709207234</v>
       </c>
       <c r="C28">
-        <v>0.2856273718672748</v>
+        <v>-0.2954990031014578</v>
       </c>
       <c r="D28">
-        <v>-0.0480086414109757</v>
+        <v>0.01507070046717265</v>
       </c>
       <c r="E28">
-        <v>0.08033444846632644</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.02561925604538358</v>
+      </c>
+      <c r="F28">
+        <v>0.02625320185950126</v>
+      </c>
+      <c r="G28">
+        <v>0.03038640461684752</v>
+      </c>
+      <c r="H28">
+        <v>0.04446181563281305</v>
+      </c>
+      <c r="I28">
+        <v>-0.03212551360711204</v>
+      </c>
+      <c r="J28">
+        <v>0.02183957668887717</v>
+      </c>
+      <c r="K28">
+        <v>0.07433496365701842</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>0.05580214816351124</v>
+        <v>0.05448137227304397</v>
       </c>
       <c r="C29">
-        <v>0.01114447958974677</v>
+        <v>0.005270520237108354</v>
       </c>
       <c r="D29">
-        <v>0.03741147108222365</v>
+        <v>-0.03139005660501324</v>
       </c>
       <c r="E29">
-        <v>0.0230395304505176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.002923572185306612</v>
+      </c>
+      <c r="F29">
+        <v>0.04642822514568515</v>
+      </c>
+      <c r="G29">
+        <v>0.02903791592670891</v>
+      </c>
+      <c r="H29">
+        <v>-0.06004094676773118</v>
+      </c>
+      <c r="I29">
+        <v>0.0507758901550906</v>
+      </c>
+      <c r="J29">
+        <v>-0.02655675795025303</v>
+      </c>
+      <c r="K29">
+        <v>0.04601774774881262</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>0.1545133461319041</v>
+        <v>0.135466481589817</v>
       </c>
       <c r="C30">
-        <v>-0.0606187546331947</v>
+        <v>0.05201505093479981</v>
       </c>
       <c r="D30">
-        <v>0.08450206440784337</v>
+        <v>-0.03574192406132209</v>
       </c>
       <c r="E30">
-        <v>0.05487119533373901</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.008095753904717158</v>
+      </c>
+      <c r="F30">
+        <v>0.1182788348419517</v>
+      </c>
+      <c r="G30">
+        <v>0.05367793860249975</v>
+      </c>
+      <c r="H30">
+        <v>0.1040786711456216</v>
+      </c>
+      <c r="I30">
+        <v>0.3299086707620312</v>
+      </c>
+      <c r="J30">
+        <v>0.03312841524612768</v>
+      </c>
+      <c r="K30">
+        <v>0.1633276112650365</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.05733663932863112</v>
+        <v>0.0482877025560168</v>
       </c>
       <c r="C31">
-        <v>-0.0137964095885832</v>
+        <v>0.03462760895947183</v>
       </c>
       <c r="D31">
-        <v>0.02884482928391111</v>
+        <v>-0.01192394262945457</v>
       </c>
       <c r="E31">
-        <v>0.004640878959946479</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01598324638525228</v>
+      </c>
+      <c r="F31">
+        <v>0.02142088906320513</v>
+      </c>
+      <c r="G31">
+        <v>0.006783888050952012</v>
+      </c>
+      <c r="H31">
+        <v>-0.05019550785672496</v>
+      </c>
+      <c r="I31">
+        <v>0.04074016085191248</v>
+      </c>
+      <c r="J31">
+        <v>-0.03677998730657511</v>
+      </c>
+      <c r="K31">
+        <v>0.02763206127218357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>0.04706415746463812</v>
+        <v>0.04887889465185516</v>
       </c>
       <c r="C32">
-        <v>-0.02122853704263042</v>
+        <v>0.0007731840452055271</v>
       </c>
       <c r="D32">
-        <v>0.01437046620327375</v>
+        <v>0.01957947488417418</v>
       </c>
       <c r="E32">
-        <v>0.004606147454300465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.0307860748207565</v>
+      </c>
+      <c r="F32">
+        <v>0.07667860837174426</v>
+      </c>
+      <c r="G32">
+        <v>0.001124569799032896</v>
+      </c>
+      <c r="H32">
+        <v>-0.001863760034588176</v>
+      </c>
+      <c r="I32">
+        <v>-0.01422331171367809</v>
+      </c>
+      <c r="J32">
+        <v>0.07210144784326171</v>
+      </c>
+      <c r="K32">
+        <v>0.1053714242586139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>0.1011337842857437</v>
+        <v>0.1022659365858609</v>
       </c>
       <c r="C33">
-        <v>-0.032544283956932</v>
+        <v>0.04628636354638038</v>
       </c>
       <c r="D33">
-        <v>0.04265581734048207</v>
+        <v>-0.01636252169457665</v>
       </c>
       <c r="E33">
-        <v>0.01129840001511817</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02264046893133863</v>
+      </c>
+      <c r="F33">
+        <v>0.02816697209803678</v>
+      </c>
+      <c r="G33">
+        <v>0.01256747664736856</v>
+      </c>
+      <c r="H33">
+        <v>-0.02106034045529357</v>
+      </c>
+      <c r="I33">
+        <v>0.06882133697816253</v>
+      </c>
+      <c r="J33">
+        <v>-0.02655546860654134</v>
+      </c>
+      <c r="K33">
+        <v>0.02732489886862761</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>0.06442827780375761</v>
+        <v>0.07042515331902606</v>
       </c>
       <c r="C34">
-        <v>-0.05524019490337031</v>
+        <v>0.04623826332050531</v>
       </c>
       <c r="D34">
-        <v>0.03009263429262393</v>
+        <v>-0.01959312172635136</v>
       </c>
       <c r="E34">
-        <v>0.02335331375956061</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.004197522909500621</v>
+      </c>
+      <c r="F34">
+        <v>0.02941615340933864</v>
+      </c>
+      <c r="G34">
+        <v>0.03945123917257657</v>
+      </c>
+      <c r="H34">
+        <v>-0.01898010125415055</v>
+      </c>
+      <c r="I34">
+        <v>0.06144404455549173</v>
+      </c>
+      <c r="J34">
+        <v>-0.01401852742608607</v>
+      </c>
+      <c r="K34">
+        <v>-0.04983388407625398</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>0.04230302500821648</v>
+        <v>0.03765298409594265</v>
       </c>
       <c r="C35">
-        <v>-0.008604446642471517</v>
+        <v>0.01605517790625991</v>
       </c>
       <c r="D35">
-        <v>0.02030628278161075</v>
+        <v>-0.013597678305799</v>
       </c>
       <c r="E35">
-        <v>-0.003790926487483031</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01969292107638594</v>
+      </c>
+      <c r="F35">
+        <v>0.009665711375037897</v>
+      </c>
+      <c r="G35">
+        <v>0.009460380366327409</v>
+      </c>
+      <c r="H35">
+        <v>-0.02073055900001955</v>
+      </c>
+      <c r="I35">
+        <v>0.05786744434382497</v>
+      </c>
+      <c r="J35">
+        <v>-0.006525765843955952</v>
+      </c>
+      <c r="K35">
+        <v>0.001476417789374476</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>0.0369641676888726</v>
+        <v>0.03326178724006076</v>
       </c>
       <c r="C36">
-        <v>-0.01936431328535547</v>
+        <v>0.01500536627405518</v>
       </c>
       <c r="D36">
-        <v>0.01403059318157193</v>
+        <v>0.0008233465724030511</v>
       </c>
       <c r="E36">
-        <v>0.02999654084490853</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.007435906190902063</v>
+      </c>
+      <c r="F36">
+        <v>0.04389950323304539</v>
+      </c>
+      <c r="G36">
+        <v>0.0247665942951399</v>
+      </c>
+      <c r="H36">
+        <v>-0.01190136747160264</v>
+      </c>
+      <c r="I36">
+        <v>0.06736434206982228</v>
+      </c>
+      <c r="J36">
+        <v>-0.01923068249497597</v>
+      </c>
+      <c r="K36">
+        <v>0.03798211958222683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1989,168 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>0.06591678639357966</v>
+        <v>0.05702890407820659</v>
       </c>
       <c r="C38">
-        <v>-0.002002328717746185</v>
+        <v>0.02567754595040022</v>
       </c>
       <c r="D38">
-        <v>-0.01107436444707229</v>
+        <v>0.02340417186475834</v>
       </c>
       <c r="E38">
-        <v>-0.01484349893096762</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.0007260803613263987</v>
+      </c>
+      <c r="F38">
+        <v>0.01023736174184665</v>
+      </c>
+      <c r="G38">
+        <v>-0.004620745866178349</v>
+      </c>
+      <c r="H38">
+        <v>-0.0235312914190099</v>
+      </c>
+      <c r="I38">
+        <v>-0.01216209052935055</v>
+      </c>
+      <c r="J38">
+        <v>0.03966904823373104</v>
+      </c>
+      <c r="K38">
+        <v>0.04166198309248322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>0.09501283521396353</v>
+        <v>0.09959090520106165</v>
       </c>
       <c r="C39">
-        <v>-0.03505130849606528</v>
+        <v>0.045734199038114</v>
       </c>
       <c r="D39">
-        <v>0.04891965737739164</v>
+        <v>-0.03327119171760374</v>
       </c>
       <c r="E39">
-        <v>0.003609612874803204</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.008873428153571495</v>
+      </c>
+      <c r="F39">
+        <v>0.04075758026809108</v>
+      </c>
+      <c r="G39">
+        <v>0.04607853926584199</v>
+      </c>
+      <c r="H39">
+        <v>0.00379385802230451</v>
+      </c>
+      <c r="I39">
+        <v>0.1130361413138659</v>
+      </c>
+      <c r="J39">
+        <v>0.1085216345310673</v>
+      </c>
+      <c r="K39">
+        <v>-0.02977066945568122</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>0.07459949728890652</v>
+        <v>0.05242774071084322</v>
       </c>
       <c r="C40">
-        <v>-0.01453532215647198</v>
+        <v>0.03963685025438986</v>
       </c>
       <c r="D40">
-        <v>0.02952236666848942</v>
+        <v>0.02520475034424536</v>
       </c>
       <c r="E40">
-        <v>0.0148745039873576</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.03958648780190007</v>
+      </c>
+      <c r="F40">
+        <v>0.05322934717489327</v>
+      </c>
+      <c r="G40">
+        <v>0.05011703191966942</v>
+      </c>
+      <c r="H40">
+        <v>0.09043456850148408</v>
+      </c>
+      <c r="I40">
+        <v>0.2246997298023169</v>
+      </c>
+      <c r="J40">
+        <v>0.1993547473780522</v>
+      </c>
+      <c r="K40">
+        <v>-0.03486728943269341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>0.06075827949197907</v>
+        <v>0.04931722515875569</v>
       </c>
       <c r="C41">
-        <v>-0.02215346786812974</v>
+        <v>0.03382026421932033</v>
       </c>
       <c r="D41">
-        <v>0.01022463047456413</v>
+        <v>-0.002570840344450926</v>
       </c>
       <c r="E41">
-        <v>-0.0088164619214573</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.001620200476903318</v>
+      </c>
+      <c r="F41">
+        <v>-0.01648377216853987</v>
+      </c>
+      <c r="G41">
+        <v>0.02002642763521537</v>
+      </c>
+      <c r="H41">
+        <v>-0.03381043624462557</v>
+      </c>
+      <c r="I41">
+        <v>0.03181777538325275</v>
+      </c>
+      <c r="J41">
+        <v>0.03544972423047539</v>
+      </c>
+      <c r="K41">
+        <v>0.02508325111821007</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +2164,98 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>0.06007203599801871</v>
+        <v>0.06086851216327561</v>
       </c>
       <c r="C43">
-        <v>-0.01034156027671375</v>
+        <v>0.03269634750651136</v>
       </c>
       <c r="D43">
-        <v>0.02228133820134229</v>
+        <v>-0.01626354953609389</v>
       </c>
       <c r="E43">
-        <v>0.01469468621714676</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.008528126453093745</v>
+      </c>
+      <c r="F43">
+        <v>0.02243998778021138</v>
+      </c>
+      <c r="G43">
+        <v>-0.003401672729551527</v>
+      </c>
+      <c r="H43">
+        <v>-0.05180807984507567</v>
+      </c>
+      <c r="I43">
+        <v>0.02778906703810754</v>
+      </c>
+      <c r="J43">
+        <v>0.007846854392585345</v>
+      </c>
+      <c r="K43">
+        <v>0.006302186439550643</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>0.09408331611002331</v>
+        <v>0.09566150279090641</v>
       </c>
       <c r="C44">
-        <v>-0.04754411304404221</v>
+        <v>0.05041946021203923</v>
       </c>
       <c r="D44">
-        <v>0.0382122813092247</v>
+        <v>-0.00779807169979593</v>
       </c>
       <c r="E44">
-        <v>0.07860241955268296</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.0340960347419678</v>
+      </c>
+      <c r="F44">
+        <v>0.1320949633402235</v>
+      </c>
+      <c r="G44">
+        <v>0.07603852140553133</v>
+      </c>
+      <c r="H44">
+        <v>-0.01782889116272234</v>
+      </c>
+      <c r="I44">
+        <v>0.1469205998913664</v>
+      </c>
+      <c r="J44">
+        <v>0.0338577949232779</v>
+      </c>
+      <c r="K44">
+        <v>-0.02415961943458942</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,112 +2269,238 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.03503229487658389</v>
+        <v>0.04654102370644023</v>
       </c>
       <c r="C46">
-        <v>-0.02220706045197045</v>
+        <v>0.02845333866132841</v>
       </c>
       <c r="D46">
-        <v>0.02290893378708378</v>
+        <v>-0.01917962765088805</v>
       </c>
       <c r="E46">
-        <v>0.01751386136739067</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0002997061891140158</v>
+      </c>
+      <c r="F46">
+        <v>0.04527361353372903</v>
+      </c>
+      <c r="G46">
+        <v>0.004103238507251517</v>
+      </c>
+      <c r="H46">
+        <v>-0.009259146870041722</v>
+      </c>
+      <c r="I46">
+        <v>0.01574062716404667</v>
+      </c>
+      <c r="J46">
+        <v>-0.03068645130920542</v>
+      </c>
+      <c r="K46">
+        <v>0.03602966531186017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>0.03920795262708215</v>
+        <v>0.04802091045227685</v>
       </c>
       <c r="C47">
-        <v>0.01279877918072278</v>
+        <v>0.002706062894829741</v>
       </c>
       <c r="D47">
-        <v>0.01101084715748315</v>
+        <v>-0.004086909434052534</v>
       </c>
       <c r="E47">
-        <v>0.01612670586695682</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01999525360525942</v>
+      </c>
+      <c r="F47">
+        <v>0.03578649597208299</v>
+      </c>
+      <c r="G47">
+        <v>-0.0196955664067579</v>
+      </c>
+      <c r="H47">
+        <v>-0.0141396013223833</v>
+      </c>
+      <c r="I47">
+        <v>0.02291688974080887</v>
+      </c>
+      <c r="J47">
+        <v>-0.04117053668276324</v>
+      </c>
+      <c r="K47">
+        <v>-0.006622677226127113</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>0.04896073330942991</v>
+        <v>0.0442099449344081</v>
       </c>
       <c r="C48">
-        <v>-0.02350540417176773</v>
+        <v>0.01671000925860855</v>
       </c>
       <c r="D48">
-        <v>0.02906953259818238</v>
+        <v>0.004974963001695194</v>
       </c>
       <c r="E48">
-        <v>0.02659907109117091</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.0159761858700033</v>
+      </c>
+      <c r="F48">
+        <v>0.04945317343627615</v>
+      </c>
+      <c r="G48">
+        <v>0.009710134329390647</v>
+      </c>
+      <c r="H48">
+        <v>0.003690024721770129</v>
+      </c>
+      <c r="I48">
+        <v>0.04582369501034251</v>
+      </c>
+      <c r="J48">
+        <v>-0.01850741454747599</v>
+      </c>
+      <c r="K48">
+        <v>0.04621788983077247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0.1581943045278544</v>
+        <v>0.2042921380412449</v>
       </c>
       <c r="C49">
-        <v>0.01673400861156968</v>
+        <v>0.007592095790001514</v>
       </c>
       <c r="D49">
-        <v>0.077505094584375</v>
+        <v>-0.151402406147602</v>
       </c>
       <c r="E49">
-        <v>0.0275986402480415</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>-0.0725423456491022</v>
+      </c>
+      <c r="F49">
+        <v>-0.1216781874186885</v>
+      </c>
+      <c r="G49">
+        <v>-0.1289372221915017</v>
+      </c>
+      <c r="H49">
+        <v>0.1572494757543063</v>
+      </c>
+      <c r="I49">
+        <v>-0.134639214997546</v>
+      </c>
+      <c r="J49">
+        <v>0.07701318990093149</v>
+      </c>
+      <c r="K49">
+        <v>-0.203958179545449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.06125091753318603</v>
+        <v>0.0552848958084756</v>
       </c>
       <c r="C50">
-        <v>-0.01945017437033512</v>
+        <v>0.03001166023754368</v>
       </c>
       <c r="D50">
-        <v>0.03442557969146067</v>
+        <v>-0.01533973504954518</v>
       </c>
       <c r="E50">
-        <v>0.006822067102597534</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02469516520801216</v>
+      </c>
+      <c r="F50">
+        <v>0.03072850552665847</v>
+      </c>
+      <c r="G50">
+        <v>0.01906103628586487</v>
+      </c>
+      <c r="H50">
+        <v>-0.05948080209886737</v>
+      </c>
+      <c r="I50">
+        <v>0.03065091433212163</v>
+      </c>
+      <c r="J50">
+        <v>-0.05245292660845022</v>
+      </c>
+      <c r="K50">
+        <v>0.04112590743947742</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>0.03244423192168602</v>
+        <v>0.03936176902457658</v>
       </c>
       <c r="C51">
-        <v>0.00830280105404056</v>
+        <v>-0.005277744485327527</v>
       </c>
       <c r="D51">
-        <v>-0.01328792423412801</v>
+        <v>0.01301932643697739</v>
       </c>
       <c r="E51">
-        <v>-0.001531751290772233</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.02486421723547049</v>
+      </c>
+      <c r="F51">
+        <v>-0.007043363704478557</v>
+      </c>
+      <c r="G51">
+        <v>-0.02333954752664833</v>
+      </c>
+      <c r="H51">
+        <v>0.01159265541956253</v>
+      </c>
+      <c r="I51">
+        <v>0.001380603895335949</v>
+      </c>
+      <c r="J51">
+        <v>0.03968390350143902</v>
+      </c>
+      <c r="K51">
+        <v>-0.06844595958183169</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2514,168 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>0.1580673698848345</v>
+        <v>0.1577075543626306</v>
       </c>
       <c r="C53">
-        <v>0.04029181855943934</v>
+        <v>0.009844936918767542</v>
       </c>
       <c r="D53">
-        <v>0.05074416492092298</v>
+        <v>-0.05896930337776819</v>
       </c>
       <c r="E53">
-        <v>0.001295319642453288</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.002352796386395618</v>
+      </c>
+      <c r="F53">
+        <v>-0.02694376365724014</v>
+      </c>
+      <c r="G53">
+        <v>-0.01967591644583898</v>
+      </c>
+      <c r="H53">
+        <v>-0.2394762686709621</v>
+      </c>
+      <c r="I53">
+        <v>-0.05319594331890551</v>
+      </c>
+      <c r="J53">
+        <v>-0.0443960528967596</v>
+      </c>
+      <c r="K53">
+        <v>-0.06363426554746646</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>0.06212779980922151</v>
+        <v>0.06192376392749585</v>
       </c>
       <c r="C54">
-        <v>-0.007711814748507882</v>
+        <v>0.006775189972614617</v>
       </c>
       <c r="D54">
-        <v>0.02372331933817504</v>
+        <v>-0.006906517387828587</v>
       </c>
       <c r="E54">
-        <v>0.03463173388946089</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.0127455878739029</v>
+      </c>
+      <c r="F54">
+        <v>0.08187130794262223</v>
+      </c>
+      <c r="G54">
+        <v>0.04627650599103827</v>
+      </c>
+      <c r="H54">
+        <v>0.0004032813929096922</v>
+      </c>
+      <c r="I54">
+        <v>0.1233452947971495</v>
+      </c>
+      <c r="J54">
+        <v>-0.04489504972392918</v>
+      </c>
+      <c r="K54">
+        <v>0.08550984247196131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>0.09543142476639221</v>
+        <v>0.09689989252309017</v>
       </c>
       <c r="C55">
-        <v>0.006194070810471998</v>
+        <v>0.02130657310475219</v>
       </c>
       <c r="D55">
-        <v>0.0473631302098618</v>
+        <v>-0.042907713630672</v>
       </c>
       <c r="E55">
-        <v>0.02455917921216016</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.006222421463103988</v>
+      </c>
+      <c r="F55">
+        <v>0.01827795803902981</v>
+      </c>
+      <c r="G55">
+        <v>0.02830347607255207</v>
+      </c>
+      <c r="H55">
+        <v>-0.1704765561060965</v>
+      </c>
+      <c r="I55">
+        <v>0.002839188158391716</v>
+      </c>
+      <c r="J55">
+        <v>-0.04911765769069783</v>
+      </c>
+      <c r="K55">
+        <v>-0.04066558512690705</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>0.1524209151101247</v>
+        <v>0.1520390645350835</v>
       </c>
       <c r="C56">
-        <v>0.02882321748386623</v>
+        <v>0.03122843685623743</v>
       </c>
       <c r="D56">
-        <v>0.06491083848944088</v>
+        <v>-0.06237043888619584</v>
       </c>
       <c r="E56">
-        <v>0.04002673574790087</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.005666819016110567</v>
+      </c>
+      <c r="F56">
+        <v>-0.0004207123699683704</v>
+      </c>
+      <c r="G56">
+        <v>0.01175329538035265</v>
+      </c>
+      <c r="H56">
+        <v>-0.2367703617529122</v>
+      </c>
+      <c r="I56">
+        <v>-0.05932243498176675</v>
+      </c>
+      <c r="J56">
+        <v>-0.00876404346018142</v>
+      </c>
+      <c r="K56">
+        <v>-0.01959950646833127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,656 +2689,1358 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>0.1223180555563502</v>
+        <v>0.08357907748375529</v>
       </c>
       <c r="C58">
-        <v>-0.06870045253606165</v>
+        <v>0.04575889877865558</v>
       </c>
       <c r="D58">
-        <v>-0.09322751448243795</v>
+        <v>0.1558684572462147</v>
       </c>
       <c r="E58">
-        <v>0.1237051784208484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.04855052290678186</v>
+      </c>
+      <c r="F58">
+        <v>0.07216817599454262</v>
+      </c>
+      <c r="G58">
+        <v>-0.1119460444025742</v>
+      </c>
+      <c r="H58">
+        <v>0.2803638785948624</v>
+      </c>
+      <c r="I58">
+        <v>0.4442726973437804</v>
+      </c>
+      <c r="J58">
+        <v>-0.1008868018529738</v>
+      </c>
+      <c r="K58">
+        <v>-0.1977613017447865</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>0.1306510281097756</v>
+        <v>0.1610024459479489</v>
       </c>
       <c r="C59">
-        <v>0.4322515399066409</v>
+        <v>-0.3636076378018302</v>
       </c>
       <c r="D59">
-        <v>-0.08967680173636298</v>
+        <v>0.03247742184178189</v>
       </c>
       <c r="E59">
-        <v>0.07955918885665841</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02953004076609832</v>
+      </c>
+      <c r="F59">
+        <v>-0.004437475592669716</v>
+      </c>
+      <c r="G59">
+        <v>0.0104884810760319</v>
+      </c>
+      <c r="H59">
+        <v>-0.05639372338597919</v>
+      </c>
+      <c r="I59">
+        <v>-0.0006521263363894448</v>
+      </c>
+      <c r="J59">
+        <v>0.0707752558252138</v>
+      </c>
+      <c r="K59">
+        <v>-0.01675377553864965</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>0.2218028084328862</v>
+        <v>0.247272613923513</v>
       </c>
       <c r="C60">
-        <v>0.02733223831620438</v>
+        <v>0.03069539695487793</v>
       </c>
       <c r="D60">
-        <v>0.05852300122205686</v>
+        <v>-0.1034129909505888</v>
       </c>
       <c r="E60">
-        <v>0.057045347836597</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.07200812576550601</v>
+      </c>
+      <c r="F60">
+        <v>-0.07521049401833474</v>
+      </c>
+      <c r="G60">
+        <v>-0.02030285122257246</v>
+      </c>
+      <c r="H60">
+        <v>0.09541262329882923</v>
+      </c>
+      <c r="I60">
+        <v>-0.1863287822335882</v>
+      </c>
+      <c r="J60">
+        <v>-0.05733829202108309</v>
+      </c>
+      <c r="K60">
+        <v>-0.1345480337791602</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>0.08126089125385855</v>
+        <v>0.08847731618850729</v>
       </c>
       <c r="C61">
-        <v>-0.01883122481071508</v>
+        <v>0.03422207230666317</v>
       </c>
       <c r="D61">
-        <v>0.03525361414986901</v>
+        <v>-0.0320630038775017</v>
       </c>
       <c r="E61">
-        <v>0.006280333181445373</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.001617401687412638</v>
+      </c>
+      <c r="F61">
+        <v>0.02867158490791432</v>
+      </c>
+      <c r="G61">
+        <v>0.05033032898003816</v>
+      </c>
+      <c r="H61">
+        <v>-0.04474046363770689</v>
+      </c>
+      <c r="I61">
+        <v>0.078182627561467</v>
+      </c>
+      <c r="J61">
+        <v>0.05387843043849309</v>
+      </c>
+      <c r="K61">
+        <v>-0.007635093900103259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0.1504301352972367</v>
+        <v>0.147347114471296</v>
       </c>
       <c r="C62">
-        <v>0.02582734517129761</v>
+        <v>0.03354052863575939</v>
       </c>
       <c r="D62">
-        <v>0.02630016523112482</v>
+        <v>-0.0362104426225794</v>
       </c>
       <c r="E62">
-        <v>-0.004949715472544559</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.01499477284984875</v>
+      </c>
+      <c r="F62">
+        <v>-0.04610367476256617</v>
+      </c>
+      <c r="G62">
+        <v>0.03239259323434514</v>
+      </c>
+      <c r="H62">
+        <v>-0.229438425254806</v>
+      </c>
+      <c r="I62">
+        <v>-0.08382430436098044</v>
+      </c>
+      <c r="J62">
+        <v>-0.06760217976175266</v>
+      </c>
+      <c r="K62">
+        <v>0.003247242338425233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>0.06069061812052882</v>
+        <v>0.0532596596450001</v>
       </c>
       <c r="C63">
-        <v>-0.0248811580879634</v>
+        <v>0.02118227772839272</v>
       </c>
       <c r="D63">
-        <v>0.0248907232191409</v>
+        <v>-0.01091715132172676</v>
       </c>
       <c r="E63">
-        <v>0.01521265434019178</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.01698714929040688</v>
+      </c>
+      <c r="F63">
+        <v>0.03032134913317465</v>
+      </c>
+      <c r="G63">
+        <v>0.0547843156716433</v>
+      </c>
+      <c r="H63">
+        <v>-0.01265810290421147</v>
+      </c>
+      <c r="I63">
+        <v>0.03788441082781441</v>
+      </c>
+      <c r="J63">
+        <v>-0.04087492549059802</v>
+      </c>
+      <c r="K63">
+        <v>0.04217415245050607</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.1040677618141645</v>
+        <v>0.1090748852050856</v>
       </c>
       <c r="C64">
-        <v>-0.002920687113794055</v>
+        <v>0.01778622654067567</v>
       </c>
       <c r="D64">
-        <v>0.04745937273313056</v>
+        <v>-0.04524437425406756</v>
       </c>
       <c r="E64">
-        <v>0.03973138310105801</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.01641711934179485</v>
+      </c>
+      <c r="F64">
+        <v>0.06341112922448888</v>
+      </c>
+      <c r="G64">
+        <v>0.05182553734512418</v>
+      </c>
+      <c r="H64">
+        <v>0.02183984075127189</v>
+      </c>
+      <c r="I64">
+        <v>0.05119574000700352</v>
+      </c>
+      <c r="J64">
+        <v>0.02709286690370154</v>
+      </c>
+      <c r="K64">
+        <v>0.01267197618834984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>0.1237865920823749</v>
+        <v>0.1332041711025506</v>
       </c>
       <c r="C65">
-        <v>-0.02454636578751417</v>
+        <v>0.007408564051896099</v>
       </c>
       <c r="D65">
-        <v>0.03795556234234336</v>
+        <v>-0.04614170560142122</v>
       </c>
       <c r="E65">
-        <v>0.05067760416433316</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.004080624292965483</v>
+      </c>
+      <c r="F65">
+        <v>0.02187060622907928</v>
+      </c>
+      <c r="G65">
+        <v>0.08569854398148352</v>
+      </c>
+      <c r="H65">
+        <v>0.2426519670862366</v>
+      </c>
+      <c r="I65">
+        <v>-0.1296273473714495</v>
+      </c>
+      <c r="J65">
+        <v>-0.6427908054001427</v>
+      </c>
+      <c r="K65">
+        <v>0.03308645513829971</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.1590036133302664</v>
+        <v>0.1485412858329654</v>
       </c>
       <c r="C66">
-        <v>-0.06747667566026684</v>
+        <v>0.09290617888708352</v>
       </c>
       <c r="D66">
-        <v>0.06535823075799722</v>
+        <v>-0.04814759486798197</v>
       </c>
       <c r="E66">
-        <v>0.01520370538964162</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.006074363310130727</v>
+      </c>
+      <c r="F66">
+        <v>0.02174636403501581</v>
+      </c>
+      <c r="G66">
+        <v>0.08886665500563615</v>
+      </c>
+      <c r="H66">
+        <v>-0.02451933806670005</v>
+      </c>
+      <c r="I66">
+        <v>0.1830423339678994</v>
+      </c>
+      <c r="J66">
+        <v>0.1781691837878635</v>
+      </c>
+      <c r="K66">
+        <v>0.01526190072359278</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>0.09849225463877655</v>
+        <v>0.09992072001816796</v>
       </c>
       <c r="C67">
-        <v>0.0001873356723938312</v>
+        <v>0.0352572604828755</v>
       </c>
       <c r="D67">
-        <v>-0.01401418502061118</v>
+        <v>0.006586938782072478</v>
       </c>
       <c r="E67">
-        <v>0.003174528313362425</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.02469218744201043</v>
+      </c>
+      <c r="F67">
+        <v>-0.003147653645036903</v>
+      </c>
+      <c r="G67">
+        <v>-0.01289649588495648</v>
+      </c>
+      <c r="H67">
+        <v>-0.02161483065098615</v>
+      </c>
+      <c r="I67">
+        <v>-0.03110109184144062</v>
+      </c>
+      <c r="J67">
+        <v>0.07117371764376787</v>
+      </c>
+      <c r="K67">
+        <v>0.02558335813306917</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>0.04741929516312422</v>
+        <v>0.07403676437902795</v>
       </c>
       <c r="C68">
-        <v>0.2520606314814169</v>
+        <v>-0.2823860719754707</v>
       </c>
       <c r="D68">
-        <v>-0.05506038198294291</v>
+        <v>0.02543018812942578</v>
       </c>
       <c r="E68">
-        <v>0.04206741122087231</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.004574240488871824</v>
+      </c>
+      <c r="F68">
+        <v>0.04163543294465724</v>
+      </c>
+      <c r="G68">
+        <v>-0.005761581149636333</v>
+      </c>
+      <c r="H68">
+        <v>-0.01300671361246069</v>
+      </c>
+      <c r="I68">
+        <v>0.01951265894918366</v>
+      </c>
+      <c r="J68">
+        <v>-0.04780050425695225</v>
+      </c>
+      <c r="K68">
+        <v>0.006398076382692014</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>0.06842188833499706</v>
+        <v>0.05753227088046634</v>
       </c>
       <c r="C69">
-        <v>-0.009147856283620958</v>
+        <v>0.01704489226654898</v>
       </c>
       <c r="D69">
-        <v>0.001745456583383447</v>
+        <v>0.01841171853014654</v>
       </c>
       <c r="E69">
-        <v>0.01182463158212401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.01398469556312898</v>
+      </c>
+      <c r="F69">
+        <v>0.007870953589982943</v>
+      </c>
+      <c r="G69">
+        <v>-0.0009868970935333718</v>
+      </c>
+      <c r="H69">
+        <v>-0.03085349354457724</v>
+      </c>
+      <c r="I69">
+        <v>0.01784387949196092</v>
+      </c>
+      <c r="J69">
+        <v>-0.004336697718131981</v>
+      </c>
+      <c r="K69">
+        <v>-0.01281899026762071</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B70">
-        <v>0.01414134820361908</v>
+        <v>0.03927451321856076</v>
       </c>
       <c r="C70">
-        <v>0.008641558373764813</v>
+        <v>0.001047574711495851</v>
       </c>
       <c r="D70">
-        <v>-0.007294157951986831</v>
+        <v>0.001920597570815429</v>
       </c>
       <c r="E70">
-        <v>-0.01489636589104787</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.01205670360666263</v>
+      </c>
+      <c r="F70">
+        <v>-0.04696593346749244</v>
+      </c>
+      <c r="G70">
+        <v>-0.01046449069468346</v>
+      </c>
+      <c r="H70">
+        <v>0.03608073878672224</v>
+      </c>
+      <c r="I70">
+        <v>-0.01164629269831583</v>
+      </c>
+      <c r="J70">
+        <v>0.04205332763138098</v>
+      </c>
+      <c r="K70">
+        <v>0.1439512648641198</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>0.04333890735003795</v>
+        <v>0.08086609456044005</v>
       </c>
       <c r="C71">
-        <v>0.2841263728029654</v>
+        <v>-0.3029972860830222</v>
       </c>
       <c r="D71">
-        <v>-0.06040433711613567</v>
+        <v>0.01248163451863213</v>
       </c>
       <c r="E71">
-        <v>0.0884213801879183</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02551000090646971</v>
+      </c>
+      <c r="F71">
+        <v>0.04714242105034464</v>
+      </c>
+      <c r="G71">
+        <v>0.0009437936229705135</v>
+      </c>
+      <c r="H71">
+        <v>-0.01426801903479913</v>
+      </c>
+      <c r="I71">
+        <v>0.02089520175569841</v>
+      </c>
+      <c r="J71">
+        <v>-0.01661119013605894</v>
+      </c>
+      <c r="K71">
+        <v>0.002616107667742149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>0.1445239784115493</v>
+        <v>0.1358455563333922</v>
       </c>
       <c r="C72">
-        <v>0.03932158311785822</v>
+        <v>-0.002039895458334624</v>
       </c>
       <c r="D72">
-        <v>0.01366162975980842</v>
+        <v>0.0206687707316507</v>
       </c>
       <c r="E72">
-        <v>-0.2305267776167542</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.1515391009938762</v>
+      </c>
+      <c r="F72">
+        <v>-0.08596192241622834</v>
+      </c>
+      <c r="G72">
+        <v>0.1163352926820898</v>
+      </c>
+      <c r="H72">
+        <v>-0.007084344719816126</v>
+      </c>
+      <c r="I72">
+        <v>-0.04987044599792716</v>
+      </c>
+      <c r="J72">
+        <v>-0.1101935963605112</v>
+      </c>
+      <c r="K72">
+        <v>-0.1221567348702134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>0.2647192722399394</v>
+        <v>0.2570956944455169</v>
       </c>
       <c r="C73">
-        <v>-0.03430695289176192</v>
+        <v>0.09409485414915804</v>
       </c>
       <c r="D73">
-        <v>0.09032545375055913</v>
+        <v>-0.1433603510848339</v>
       </c>
       <c r="E73">
-        <v>0.06478016600066384</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.1681009163199664</v>
+      </c>
+      <c r="F73">
+        <v>-0.2363914296778369</v>
+      </c>
+      <c r="G73">
+        <v>-0.2049040838507956</v>
+      </c>
+      <c r="H73">
+        <v>0.2361051288160862</v>
+      </c>
+      <c r="I73">
+        <v>-0.08439498613180144</v>
+      </c>
+      <c r="J73">
+        <v>0.2051856031063328</v>
+      </c>
+      <c r="K73">
+        <v>-0.5135024876647588</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>0.09034113658295398</v>
+        <v>0.09449357173590094</v>
       </c>
       <c r="C74">
-        <v>0.02583351803623173</v>
+        <v>0.02282631303933394</v>
       </c>
       <c r="D74">
-        <v>0.05365636768374443</v>
+        <v>-0.0529270951915673</v>
       </c>
       <c r="E74">
-        <v>0.001798201274395779</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01354156899801431</v>
+      </c>
+      <c r="F74">
+        <v>-0.003858678697068374</v>
+      </c>
+      <c r="G74">
+        <v>-0.02925678373963974</v>
+      </c>
+      <c r="H74">
+        <v>-0.1380895019633548</v>
+      </c>
+      <c r="I74">
+        <v>0.01214971313802687</v>
+      </c>
+      <c r="J74">
+        <v>-0.0166618105947713</v>
+      </c>
+      <c r="K74">
+        <v>-0.06486857615201669</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>0.1181742200658111</v>
+        <v>0.1043950081601513</v>
       </c>
       <c r="C75">
-        <v>0.002002247467477567</v>
+        <v>0.02627944998741742</v>
       </c>
       <c r="D75">
-        <v>0.001731879317319656</v>
+        <v>0.01794252822278785</v>
       </c>
       <c r="E75">
-        <v>0.01653166350390959</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.004873260302666625</v>
+      </c>
+      <c r="F75">
+        <v>-0.01438823439577142</v>
+      </c>
+      <c r="G75">
+        <v>-0.01011132391757676</v>
+      </c>
+      <c r="H75">
+        <v>-0.1253362496375869</v>
+      </c>
+      <c r="I75">
+        <v>-0.04076828862360508</v>
+      </c>
+      <c r="J75">
+        <v>-0.02734744021326452</v>
+      </c>
+      <c r="K75">
+        <v>0.005907988739157474</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>0.1431405258714706</v>
+        <v>0.1346976187733086</v>
       </c>
       <c r="C76">
-        <v>0.004291619912679699</v>
+        <v>0.04498600586759796</v>
       </c>
       <c r="D76">
-        <v>0.06074628623594855</v>
+        <v>-0.06227556942544089</v>
       </c>
       <c r="E76">
-        <v>0.03346732575458908</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.007608802522270738</v>
+      </c>
+      <c r="F76">
+        <v>0.0161385259052959</v>
+      </c>
+      <c r="G76">
+        <v>0.01854007819098269</v>
+      </c>
+      <c r="H76">
+        <v>-0.2815422881030244</v>
+      </c>
+      <c r="I76">
+        <v>-0.0337586519202611</v>
+      </c>
+      <c r="J76">
+        <v>-0.0401006279244421</v>
+      </c>
+      <c r="K76">
+        <v>-0.03238677819808691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>0.1344225457482101</v>
+        <v>0.09770308403511385</v>
       </c>
       <c r="C77">
-        <v>-0.08564818042281751</v>
+        <v>0.04920752789595318</v>
       </c>
       <c r="D77">
-        <v>-0.08058040954185079</v>
+        <v>0.1742384894684708</v>
       </c>
       <c r="E77">
-        <v>0.08263923732754896</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.05245912799058389</v>
+      </c>
+      <c r="F77">
+        <v>0.1274215493202088</v>
+      </c>
+      <c r="G77">
+        <v>0.7300588478389051</v>
+      </c>
+      <c r="H77">
+        <v>0.1997414795666382</v>
+      </c>
+      <c r="I77">
+        <v>-0.3627647067161753</v>
+      </c>
+      <c r="J77">
+        <v>0.2904481130991031</v>
+      </c>
+      <c r="K77">
+        <v>-0.007121787359515769</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>0.1191618121613872</v>
+        <v>0.1617881114463526</v>
       </c>
       <c r="C78">
-        <v>-0.05852976757658836</v>
+        <v>0.0655003833402529</v>
       </c>
       <c r="D78">
-        <v>0.05405399577860459</v>
+        <v>-0.03745817650938606</v>
       </c>
       <c r="E78">
-        <v>0.004181806839705376</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.007394510041131454</v>
+      </c>
+      <c r="F78">
+        <v>0.1706960402492696</v>
+      </c>
+      <c r="G78">
+        <v>-0.01700574267696008</v>
+      </c>
+      <c r="H78">
+        <v>0.1438924385900686</v>
+      </c>
+      <c r="I78">
+        <v>-0.03731761100330209</v>
+      </c>
+      <c r="J78">
+        <v>-0.0581687490470094</v>
+      </c>
+      <c r="K78">
+        <v>0.01933775784776489</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>0.1514278210517121</v>
+        <v>0.1449955121578517</v>
       </c>
       <c r="C79">
-        <v>-0.01275949903116893</v>
+        <v>0.04231603184800787</v>
       </c>
       <c r="D79">
-        <v>0.05756712545197631</v>
+        <v>-0.04057957921603929</v>
       </c>
       <c r="E79">
-        <v>0.001263620955548887</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.00384930308537278</v>
+      </c>
+      <c r="F79">
+        <v>-0.006214821006784767</v>
+      </c>
+      <c r="G79">
+        <v>0.0444529923307979</v>
+      </c>
+      <c r="H79">
+        <v>-0.1958658092483661</v>
+      </c>
+      <c r="I79">
+        <v>-0.05385118186204092</v>
+      </c>
+      <c r="J79">
+        <v>-0.05878500283051927</v>
+      </c>
+      <c r="K79">
+        <v>-0.01442939378331304</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>0.04294719261290585</v>
+        <v>0.04332891050496218</v>
       </c>
       <c r="C80">
-        <v>-0.005982510809999315</v>
+        <v>0.006666948525728884</v>
       </c>
       <c r="D80">
-        <v>0.01903506324462256</v>
+        <v>-0.03977757626025034</v>
       </c>
       <c r="E80">
-        <v>0.002275439659980578</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.01622386541036246</v>
+      </c>
+      <c r="F80">
+        <v>-0.03991396088725941</v>
+      </c>
+      <c r="G80">
+        <v>0.008823373677760812</v>
+      </c>
+      <c r="H80">
+        <v>0.04063550254436436</v>
+      </c>
+      <c r="I80">
+        <v>0.08379285737294231</v>
+      </c>
+      <c r="J80">
+        <v>-0.02783698269064959</v>
+      </c>
+      <c r="K80">
+        <v>-0.007135741099031852</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.1341735414721831</v>
+        <v>0.1291220539942368</v>
       </c>
       <c r="C81">
-        <v>0.01024771994571471</v>
+        <v>0.01760810011409478</v>
       </c>
       <c r="D81">
-        <v>0.04664480437670619</v>
+        <v>-0.03732840231313105</v>
       </c>
       <c r="E81">
-        <v>0.02562786840601208</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.008746666554670971</v>
+      </c>
+      <c r="F81">
+        <v>0.001928226892832519</v>
+      </c>
+      <c r="G81">
+        <v>0.0111004402786</v>
+      </c>
+      <c r="H81">
+        <v>-0.1530411971948342</v>
+      </c>
+      <c r="I81">
+        <v>0.001327927628424064</v>
+      </c>
+      <c r="J81">
+        <v>0.01528748114079464</v>
+      </c>
+      <c r="K81">
+        <v>-0.004410346348715185</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>0.1247492036283199</v>
+        <v>0.1225829041261349</v>
       </c>
       <c r="C82">
-        <v>-0.01423632958026408</v>
+        <v>0.03120577671943602</v>
       </c>
       <c r="D82">
-        <v>0.03093497061785231</v>
+        <v>-0.0326329114001809</v>
       </c>
       <c r="E82">
-        <v>0.04003400940097433</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01909654802577818</v>
+      </c>
+      <c r="F82">
+        <v>-0.01377372888136947</v>
+      </c>
+      <c r="G82">
+        <v>-0.00974157507539241</v>
+      </c>
+      <c r="H82">
+        <v>-0.2832337182662926</v>
+      </c>
+      <c r="I82">
+        <v>-0.01050679872301178</v>
+      </c>
+      <c r="J82">
+        <v>0.002998128046672655</v>
+      </c>
+      <c r="K82">
+        <v>0.02593993884152263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>0.04989542759970989</v>
+        <v>0.07502785063565534</v>
       </c>
       <c r="C83">
-        <v>-0.01794798930658888</v>
+        <v>0.02904521506809414</v>
       </c>
       <c r="D83">
-        <v>-0.05210979101683788</v>
+        <v>0.02870381371379948</v>
       </c>
       <c r="E83">
-        <v>0.01432887057370632</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.04442499607580928</v>
+      </c>
+      <c r="F83">
+        <v>-0.04431015742030507</v>
+      </c>
+      <c r="G83">
+        <v>-0.04275466588383251</v>
+      </c>
+      <c r="H83">
+        <v>0.07311043994194487</v>
+      </c>
+      <c r="I83">
+        <v>0.09042020030474818</v>
+      </c>
+      <c r="J83">
+        <v>0.0201817378361783</v>
+      </c>
+      <c r="K83">
+        <v>0.05679951781780794</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.04524706692964203</v>
+        <v>0.03558642974434368</v>
       </c>
       <c r="C84">
-        <v>-0.01563697596005461</v>
+        <v>0.03972105649681389</v>
       </c>
       <c r="D84">
-        <v>0.03509445405211195</v>
+        <v>-0.006533974611772343</v>
       </c>
       <c r="E84">
-        <v>-0.05765533355809317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.059767255971312</v>
+      </c>
+      <c r="F84">
+        <v>0.01598079020168544</v>
+      </c>
+      <c r="G84">
+        <v>-0.03471391509371382</v>
+      </c>
+      <c r="H84">
+        <v>-0.001890235605892425</v>
+      </c>
+      <c r="I84">
+        <v>0.118941808364009</v>
+      </c>
+      <c r="J84">
+        <v>-0.02032851410585338</v>
+      </c>
+      <c r="K84">
+        <v>0.08544068791546118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>0.1182180908062755</v>
+        <v>0.1233695640726582</v>
       </c>
       <c r="C85">
-        <v>-0.02853121207203875</v>
+        <v>0.03726779381480579</v>
       </c>
       <c r="D85">
-        <v>0.02793946720077165</v>
+        <v>-0.02233447136622331</v>
       </c>
       <c r="E85">
-        <v>0.06822846933505573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.03143201922713587</v>
+      </c>
+      <c r="F85">
+        <v>0.02257205589326322</v>
+      </c>
+      <c r="G85">
+        <v>0.01418299637326721</v>
+      </c>
+      <c r="H85">
+        <v>-0.1965891812012754</v>
+      </c>
+      <c r="I85">
+        <v>-0.02755415511842402</v>
+      </c>
+      <c r="J85">
+        <v>-0.06904642606053135</v>
+      </c>
+      <c r="K85">
+        <v>-0.02422406532693612</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>0.07091016836672881</v>
+        <v>0.06215436435314765</v>
       </c>
       <c r="C86">
-        <v>-0.06484375699407545</v>
+        <v>0.03703166512641907</v>
       </c>
       <c r="D86">
-        <v>0.02382515828006419</v>
+        <v>0.01307708706972968</v>
       </c>
       <c r="E86">
-        <v>0.01726738038918698</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01102582296768287</v>
+      </c>
+      <c r="F86">
+        <v>0.04257555478448928</v>
+      </c>
+      <c r="G86">
+        <v>-0.002437546733659886</v>
+      </c>
+      <c r="H86">
+        <v>0.04316867582438345</v>
+      </c>
+      <c r="I86">
+        <v>-0.05836218657760645</v>
+      </c>
+      <c r="J86">
+        <v>-0.008467035585355675</v>
+      </c>
+      <c r="K86">
+        <v>0.03997702056348419</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>0.134952568171902</v>
+        <v>0.1320146198409526</v>
       </c>
       <c r="C87">
-        <v>-0.0571769176030319</v>
+        <v>0.0676819091284236</v>
       </c>
       <c r="D87">
-        <v>0.07341135767754356</v>
+        <v>-0.01772233995745572</v>
       </c>
       <c r="E87">
-        <v>0.03472696053718132</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01587717155872795</v>
+      </c>
+      <c r="F87">
+        <v>0.09301215603784714</v>
+      </c>
+      <c r="G87">
+        <v>0.1648194814001916</v>
+      </c>
+      <c r="H87">
+        <v>0.06861242570831616</v>
+      </c>
+      <c r="I87">
+        <v>-0.007729272012847532</v>
+      </c>
+      <c r="J87">
+        <v>0.02630358813686607</v>
+      </c>
+      <c r="K87">
+        <v>-0.0212192218500221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>0.06004505771248628</v>
+        <v>0.06504899383083607</v>
       </c>
       <c r="C88">
-        <v>-0.02050993618751563</v>
+        <v>0.03744677850181818</v>
       </c>
       <c r="D88">
-        <v>0.0181992495763139</v>
+        <v>-0.02623800400731913</v>
       </c>
       <c r="E88">
-        <v>0.008962649934255986</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01165105788072826</v>
+      </c>
+      <c r="F88">
+        <v>0.001141349297604273</v>
+      </c>
+      <c r="G88">
+        <v>0.02185330877893632</v>
+      </c>
+      <c r="H88">
+        <v>-0.01862750658852493</v>
+      </c>
+      <c r="I88">
+        <v>0.04580719308135871</v>
+      </c>
+      <c r="J88">
+        <v>0.0119453615885326</v>
+      </c>
+      <c r="K88">
+        <v>0.02025918957552773</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>0.07397600700417858</v>
+        <v>0.1288068368364478</v>
       </c>
       <c r="C89">
-        <v>0.3222126243730942</v>
+        <v>-0.3802743763119212</v>
       </c>
       <c r="D89">
-        <v>-0.05864446135997699</v>
+        <v>0.005204563136650175</v>
       </c>
       <c r="E89">
-        <v>0.1125177052894172</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.07000941148628025</v>
+      </c>
+      <c r="F89">
+        <v>0.06916519603597202</v>
+      </c>
+      <c r="G89">
+        <v>-0.02202760948459005</v>
+      </c>
+      <c r="H89">
+        <v>0.005960576777568485</v>
+      </c>
+      <c r="I89">
+        <v>0.07480330500759766</v>
+      </c>
+      <c r="J89">
+        <v>0.05463939468874751</v>
+      </c>
+      <c r="K89">
+        <v>-0.01184594943456567</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>0.06684662883720854</v>
+        <v>0.09462825963723044</v>
       </c>
       <c r="C90">
-        <v>0.2782358998211786</v>
+        <v>-0.2845219972585014</v>
       </c>
       <c r="D90">
-        <v>-0.07554406206821025</v>
+        <v>0.03177369108391093</v>
       </c>
       <c r="E90">
-        <v>0.06340329498691155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.02527933588001384</v>
+      </c>
+      <c r="F90">
+        <v>0.0270719032690179</v>
+      </c>
+      <c r="G90">
+        <v>0.01864453609420295</v>
+      </c>
+      <c r="H90">
+        <v>0.04387380527196096</v>
+      </c>
+      <c r="I90">
+        <v>0.07805402483828752</v>
+      </c>
+      <c r="J90">
+        <v>0.03116661612149737</v>
+      </c>
+      <c r="K90">
+        <v>-0.03107715367352515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>0.104959885182432</v>
+        <v>0.09215793253844547</v>
       </c>
       <c r="C91">
-        <v>-0.004147637441742558</v>
+        <v>0.03190457854312054</v>
       </c>
       <c r="D91">
-        <v>0.03152925013162524</v>
+        <v>-0.01259398172731644</v>
       </c>
       <c r="E91">
-        <v>0.01605045640990886</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.004359394821174738</v>
+      </c>
+      <c r="F91">
+        <v>-0.002498044946208533</v>
+      </c>
+      <c r="G91">
+        <v>-0.01416311497700854</v>
+      </c>
+      <c r="H91">
+        <v>-0.08866907488789742</v>
+      </c>
+      <c r="I91">
+        <v>-0.01944779948427155</v>
+      </c>
+      <c r="J91">
+        <v>-0.008078128367261165</v>
+      </c>
+      <c r="K91">
+        <v>-0.0147430595851643</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>0.05284315100036831</v>
+        <v>0.09170788318146671</v>
       </c>
       <c r="C92">
-        <v>0.3296489968311079</v>
+        <v>-0.337171459469394</v>
       </c>
       <c r="D92">
-        <v>-0.05108508024265597</v>
+        <v>0.006739158527651345</v>
       </c>
       <c r="E92">
-        <v>0.09012796189617449</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.02846512667467066</v>
+      </c>
+      <c r="F92">
+        <v>0.05417028998850725</v>
+      </c>
+      <c r="G92">
+        <v>0.0006485928833050831</v>
+      </c>
+      <c r="H92">
+        <v>-0.01107196524534463</v>
+      </c>
+      <c r="I92">
+        <v>0.02794603237461213</v>
+      </c>
+      <c r="J92">
+        <v>0.01688325802933192</v>
+      </c>
+      <c r="K92">
+        <v>-0.0001015091277543995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>0.04890634746313094</v>
+        <v>0.09366771818894613</v>
       </c>
       <c r="C93">
-        <v>0.3005250279389622</v>
+        <v>-0.3203370334559857</v>
       </c>
       <c r="D93">
-        <v>-0.05571464871525862</v>
+        <v>0.00305482688965605</v>
       </c>
       <c r="E93">
-        <v>0.05966895237657884</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02172465411649225</v>
+      </c>
+      <c r="F93">
+        <v>0.0131848513729212</v>
+      </c>
+      <c r="G93">
+        <v>0.0005223275647930859</v>
+      </c>
+      <c r="H93">
+        <v>0.0116470626358109</v>
+      </c>
+      <c r="I93">
+        <v>0.003536964313115815</v>
+      </c>
+      <c r="J93">
+        <v>-0.004468240437932793</v>
+      </c>
+      <c r="K93">
+        <v>0.03144544735781083</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>0.1254931244675186</v>
+        <v>0.1219417298820587</v>
       </c>
       <c r="C94">
-        <v>-0.04904999312265804</v>
+        <v>0.051551130135675</v>
       </c>
       <c r="D94">
-        <v>0.03733043734030898</v>
+        <v>-0.01314537939066754</v>
       </c>
       <c r="E94">
-        <v>0.03179353274712342</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.0186685700444746</v>
+      </c>
+      <c r="F94">
+        <v>0.02158013944368792</v>
+      </c>
+      <c r="G94">
+        <v>-0.05372606415338303</v>
+      </c>
+      <c r="H94">
+        <v>-0.1203823915531676</v>
+      </c>
+      <c r="I94">
+        <v>-0.02280353452590212</v>
+      </c>
+      <c r="J94">
+        <v>-0.02201341056692446</v>
+      </c>
+      <c r="K94">
+        <v>-0.01850694160529075</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>0.1291583257658961</v>
+        <v>0.1403023039828543</v>
       </c>
       <c r="C95">
-        <v>-0.07010005131366062</v>
+        <v>0.06478175397025998</v>
       </c>
       <c r="D95">
-        <v>0.0829000200963773</v>
+        <v>-0.03961428726138808</v>
       </c>
       <c r="E95">
-        <v>0.06964698990628608</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.02201099798683482</v>
+      </c>
+      <c r="F95">
+        <v>0.06168114067383276</v>
+      </c>
+      <c r="G95">
+        <v>0.03172209207265233</v>
+      </c>
+      <c r="H95">
+        <v>0.1513479360617541</v>
+      </c>
+      <c r="I95">
+        <v>0.02517824712903628</v>
+      </c>
+      <c r="J95">
+        <v>-0.00972358298507584</v>
+      </c>
+      <c r="K95">
+        <v>0.06320941212983837</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,61 +4054,133 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>0.2410984680050804</v>
+        <v>0.1844870778973238</v>
       </c>
       <c r="C97">
-        <v>0.1564370653353144</v>
+        <v>-0.05113854212384691</v>
       </c>
       <c r="D97">
-        <v>0.008221665275053393</v>
+        <v>0.2022970924474682</v>
       </c>
       <c r="E97">
-        <v>-0.8897191558569556</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.8416913678781661</v>
+      </c>
+      <c r="F97">
+        <v>-0.3639651435650572</v>
+      </c>
+      <c r="G97">
+        <v>0.0445064619277149</v>
+      </c>
+      <c r="H97">
+        <v>0.05928697698777438</v>
+      </c>
+      <c r="I97">
+        <v>0.05277129054206041</v>
+      </c>
+      <c r="J97">
+        <v>0.02592412640303395</v>
+      </c>
+      <c r="K97">
+        <v>-0.04087677454024519</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>0.2790488045481546</v>
+        <v>0.285720954986362</v>
       </c>
       <c r="C98">
-        <v>-0.02815269327126261</v>
+        <v>0.07799673949619425</v>
       </c>
       <c r="D98">
-        <v>0.009838503039743053</v>
+        <v>-0.07013238433368597</v>
       </c>
       <c r="E98">
-        <v>0.0350395475581662</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.1016649668413719</v>
+      </c>
+      <c r="F98">
+        <v>-0.2839341117513929</v>
+      </c>
+      <c r="G98">
+        <v>-0.2823278690348178</v>
+      </c>
+      <c r="H98">
+        <v>0.204182731241199</v>
+      </c>
+      <c r="I98">
+        <v>-0.1737670843833951</v>
+      </c>
+      <c r="J98">
+        <v>0.221961949265239</v>
+      </c>
+      <c r="K98">
+        <v>0.65749134891091</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0.2347676850708057</v>
+        <v>0.1612232473142226</v>
       </c>
       <c r="C99">
-        <v>-0.2226022112118088</v>
+        <v>0.09420768160333488</v>
       </c>
       <c r="D99">
-        <v>-0.9075519089244347</v>
+        <v>0.8279709995802295</v>
       </c>
       <c r="E99">
-        <v>0.003311047193798785</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>-0.3433772566665886</v>
+      </c>
+      <c r="F99">
+        <v>-0.2441777493098349</v>
+      </c>
+      <c r="G99">
+        <v>-0.02660773057525294</v>
+      </c>
+      <c r="H99">
+        <v>-0.1141309352533577</v>
+      </c>
+      <c r="I99">
+        <v>0.05440829908057269</v>
+      </c>
+      <c r="J99">
+        <v>-0.1057404750963971</v>
+      </c>
+      <c r="K99">
+        <v>-0.01452317766092686</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,27 +4194,63 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>0.05591545463870867</v>
+        <v>0.05456828303598606</v>
       </c>
       <c r="C101">
-        <v>0.01109167891632209</v>
+        <v>0.005541520535890516</v>
       </c>
       <c r="D101">
-        <v>0.03818125462904913</v>
+        <v>-0.03231126325016968</v>
       </c>
       <c r="E101">
-        <v>0.02275908335185074</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.002985036224469833</v>
+      </c>
+      <c r="F101">
+        <v>0.04647094832608546</v>
+      </c>
+      <c r="G101">
+        <v>0.02782410250038844</v>
+      </c>
+      <c r="H101">
+        <v>-0.05877137048820566</v>
+      </c>
+      <c r="I101">
+        <v>0.05081819149505484</v>
+      </c>
+      <c r="J101">
+        <v>-0.02432584381828953</v>
+      </c>
+      <c r="K101">
+        <v>0.04401391686495587</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +4264,28 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +4299,28 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +4332,24 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
